--- a/CucumberTest/cucumber/DataBase/VirtualServers.xlsx
+++ b/CucumberTest/cucumber/DataBase/VirtualServers.xlsx
@@ -14,33 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
-    <t>awslinux-02-12-2019-17-31-27</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>awslinux-02-12-2019-18-31-32</t>
-  </si>
-  <si>
-    <t>awslinux-02-12-2019-18-43-11</t>
-  </si>
-  <si>
-    <t>awslinux-02-12-2019-18-53-30</t>
-  </si>
-  <si>
-    <t>awslinux-02-12-2019-19-23-55</t>
-  </si>
-  <si>
-    <t>awslinux-02-12-2019-19-47-00</t>
-  </si>
-  <si>
-    <t>awslinux-02-12-2019-20-05-23</t>
-  </si>
-  <si>
-    <t>awslinux-02-12-2019-20-11-09</t>
+    <t>awslinux-02-13-2019-01-04-41</t>
   </si>
 </sst>
 </file>
@@ -48,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,9 +38,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,64 +54,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +69,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -155,6 +91,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,6 +114,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -169,24 +145,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,13 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +191,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,7 +221,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,151 +347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,76 +385,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,20 +417,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,130 +505,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,39 +955,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.8571428571429" collapsed="true"/>
+    <col min="1" max="1" width="29.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CucumberTest/cucumber/DataBase/VirtualServers.xlsx
+++ b/CucumberTest/cucumber/DataBase/VirtualServers.xlsx
@@ -13,21 +13,13 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
-  <si>
-    <t>awslinux-02-13-2019-01-04-41</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -35,13 +27,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -53,6 +38,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -61,31 +99,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,84 +167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,13 +183,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,108 +297,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,7 +321,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,37 +351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +382,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,36 +450,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -473,21 +474,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -505,130 +497,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,20 +950,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.8571428571429" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/CucumberTest/cucumber/DataBase/VirtualServers.xlsx
+++ b/CucumberTest/cucumber/DataBase/VirtualServers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935"/>
+    <workbookView windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="VirtualServers" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+  <si>
+    <t>awslinux-02-13-2019-15-56-44</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>awslinux-02-13-2019-16-56-49</t>
+  </si>
+  <si>
+    <t>awslinux-02-13-2019-17-03-03</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>awslinux-02-14-2019-15-09-51</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -31,31 +54,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,23 +69,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,6 +116,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -108,7 +155,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,9 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,39 +190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,25 +206,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,37 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,115 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,9 +402,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -397,30 +461,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,28 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -497,130 +520,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,17 +970,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.8571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.8571428571429" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
